--- a/data/trans_dic/P64D$publico_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P64D$publico_2023-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.01961767629448306</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.02440651614459894</v>
+        <v>0.02440651614459895</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.02167968692362556</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.008468020148496692</v>
+        <v>0.009014804545134911</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01232780796707685</v>
+        <v>0.01216324049286209</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01320920235268886</v>
+        <v>0.0130049616125252</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03766087592687268</v>
+        <v>0.03969136078172441</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0438088609973521</v>
+        <v>0.0422824112095562</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03554687699562024</v>
+        <v>0.03393931650372381</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.08033602401159576</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.07225847642380638</v>
+        <v>0.07225847642380641</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04565585936740742</v>
+        <v>0.04615763473304135</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0585455869390113</v>
+        <v>0.05968743398441814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05552810401427538</v>
+        <v>0.0551255967030142</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09193088537601568</v>
+        <v>0.09340884474924972</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1084775375402921</v>
+        <v>0.1055037798376346</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08942967584775942</v>
+        <v>0.08838827280595503</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.05528734349009905</v>
+        <v>0.05528734349009903</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.1049340301887203</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03373534000303418</v>
+        <v>0.03354762041381179</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07424621989786036</v>
+        <v>0.07692800095037336</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05784686822760145</v>
+        <v>0.05630865381469783</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0892900214794754</v>
+        <v>0.09456928195729798</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.136097801956575</v>
+        <v>0.1393578547372065</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1023459077354391</v>
+        <v>0.1009718485917758</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1353197441653</v>
+        <v>0.1381256249563735</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1794981161287429</v>
+        <v>0.1756617380801365</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1667050025628533</v>
+        <v>0.1623371546389939</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.209947681578977</v>
+        <v>0.2131497175418582</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2490475882667539</v>
+        <v>0.2474550342157677</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2177248987703996</v>
+        <v>0.2146644539461931</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.08266680517370262</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1142801098429939</v>
+        <v>0.114280109842994</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.09653648426882781</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06862647780725617</v>
+        <v>0.06930309749398579</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1002592643976408</v>
+        <v>0.09834485033220097</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08680504770128712</v>
+        <v>0.08726450139682146</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0972435650658646</v>
+        <v>0.096993283964197</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1315996809280773</v>
+        <v>0.1295877529929924</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.107918916403278</v>
+        <v>0.1080904569527336</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3097</v>
+        <v>3297</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3409</v>
+        <v>3363</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8483</v>
+        <v>8352</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13772</v>
+        <v>14514</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12114</v>
+        <v>11692</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22828</v>
+        <v>21796</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>28346</v>
+        <v>28657</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>25837</v>
+        <v>26341</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>58981</v>
+        <v>58553</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>57076</v>
+        <v>57993</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>47873</v>
+        <v>46561</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>94990</v>
+        <v>93884</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13912</v>
+        <v>13835</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24659</v>
+        <v>25549</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>43068</v>
+        <v>41922</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>36822</v>
+        <v>39000</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45201</v>
+        <v>46284</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>76198</v>
+        <v>75175</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>68914</v>
+        <v>70343</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>79269</v>
+        <v>77575</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>158516</v>
+        <v>154363</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>106919</v>
+        <v>108550</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>109983</v>
+        <v>109280</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>207030</v>
+        <v>204120</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>130952</v>
+        <v>132244</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>149545</v>
+        <v>146689</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>295117</v>
+        <v>296679</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>185559</v>
+        <v>185082</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>196291</v>
+        <v>193290</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>366900</v>
+        <v>367483</v>
       </c>
     </row>
     <row r="24">
